--- a/src/网站名称.xlsx
+++ b/src/网站名称.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="45" uniqueCount="45">
   <si>
     <t>https://wordnet.princeton.edu</t>
   </si>
@@ -45,16 +45,6 @@
   </si>
   <si>
     <t>The only reverse dictionary system that supports cross-lingual query between Chinese and Chinese and English, and can find words by describing meaning.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -451,7 +441,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -746,18 +736,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="9.0" hidden="false" customWidth="true"/>
+    <col min="1" max="1" width="29.0" hidden="false" customWidth="true"/>
     <col min="2" max="2" width="29.0" hidden="false" customWidth="true"/>
-    <col min="3" max="3" width="29.0" hidden="false" customWidth="true"/>
-    <col min="4" max="4" width="56.0" hidden="false" customWidth="true"/>
-    <col min="5" max="5" width="53.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="96.0" hidden="false" customWidth="true"/>
+    <col min="3" max="3" width="56.0" hidden="false" customWidth="true"/>
+    <col min="4" max="4" width="53.0" hidden="false" customWidth="true"/>
+    <col min="5" max="5" width="96.0" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="14.0" hidden="false" customWidth="true"/>
     <col min="7" max="7" width="14.0" hidden="false" customWidth="true"/>
     <col min="8" max="8" width="14.0" hidden="false" customWidth="true"/>
     <col min="9" max="9" width="14.0" hidden="false" customWidth="true"/>
@@ -778,7 +768,6 @@
     <col min="24" max="24" width="14.0" hidden="false" customWidth="true"/>
     <col min="25" max="25" width="14.0" hidden="false" customWidth="true"/>
     <col min="26" max="26" width="14.0" hidden="false" customWidth="true"/>
-    <col min="27" max="27" width="14.0" hidden="false" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -797,9 +786,7 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -820,11 +807,10 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1.0</v>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -838,9 +824,7 @@
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -861,27 +845,24 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2.0</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -902,14 +883,13 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3.0</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -920,9 +900,7 @@
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -943,27 +921,24 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4.0</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -984,11 +959,10 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5.0</v>
+      <c r="A6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
@@ -1002,9 +976,7 @@
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1025,14 +997,13 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6.0</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
@@ -1043,9 +1014,7 @@
       <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1066,14 +1035,13 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7.0</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -1082,11 +1050,9 @@
         <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1107,14 +1073,13 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8.0</v>
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -1123,11 +1088,9 @@
         <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1148,7 +1111,6 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
@@ -1177,7 +1139,6 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
@@ -1206,7 +1167,6 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
@@ -1235,7 +1195,6 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
@@ -1264,7 +1223,6 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
@@ -1293,7 +1251,6 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
@@ -1322,7 +1279,6 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
@@ -1351,7 +1307,6 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2"/>
@@ -1380,7 +1335,6 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
@@ -1409,7 +1363,6 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2"/>
@@ -1438,7 +1391,6 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
@@ -1467,7 +1419,6 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2"/>
@@ -1496,7 +1447,6 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
@@ -1525,7 +1475,6 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2"/>
@@ -1554,7 +1503,6 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2"/>
@@ -1583,7 +1531,6 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
@@ -1612,7 +1559,6 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
@@ -1641,7 +1587,6 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
@@ -1670,7 +1615,6 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -1699,7 +1643,6 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
@@ -1728,7 +1671,6 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
@@ -1757,7 +1699,6 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2"/>
@@ -1786,7 +1727,6 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
@@ -1815,7 +1755,6 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2"/>
@@ -1844,7 +1783,6 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
@@ -1873,7 +1811,6 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2"/>
@@ -1902,7 +1839,6 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2"/>
@@ -1931,7 +1867,6 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2"/>
@@ -1960,7 +1895,6 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
@@ -1989,7 +1923,6 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2"/>
@@ -2018,7 +1951,6 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2"/>
@@ -2047,7 +1979,6 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2"/>
@@ -2076,7 +2007,6 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2"/>
@@ -2105,7 +2035,6 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2"/>
@@ -2134,7 +2063,6 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2"/>
@@ -2163,7 +2091,6 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2"/>
@@ -2192,7 +2119,6 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2"/>
@@ -2221,7 +2147,6 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
@@ -2250,7 +2175,6 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
@@ -2279,7 +2203,6 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2"/>
@@ -2308,7 +2231,6 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2"/>
@@ -2337,7 +2259,6 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2"/>
@@ -2366,7 +2287,6 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2"/>
@@ -2395,7 +2315,6 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
@@ -2424,7 +2343,6 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2"/>
@@ -2453,7 +2371,6 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2"/>
@@ -2482,7 +2399,6 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2"/>
@@ -2511,7 +2427,6 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="2"/>
@@ -2540,7 +2455,6 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2"/>
@@ -2569,7 +2483,6 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2"/>
@@ -2598,7 +2511,6 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2"/>
@@ -2627,7 +2539,6 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="2"/>
@@ -2656,7 +2567,6 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2"/>
@@ -2685,7 +2595,6 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2"/>
@@ -2714,7 +2623,6 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2"/>
@@ -2743,7 +2651,6 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2"/>
@@ -2772,7 +2679,6 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2"/>
@@ -2801,7 +2707,6 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2"/>
@@ -2830,7 +2735,6 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2"/>
@@ -2859,7 +2763,6 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2"/>
@@ -2888,7 +2791,6 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2"/>
@@ -2917,7 +2819,6 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2"/>
@@ -2946,7 +2847,6 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2"/>
@@ -2975,7 +2875,6 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
@@ -3004,7 +2903,6 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="2"/>
@@ -3033,7 +2931,6 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="2"/>
@@ -3062,7 +2959,6 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="2"/>
@@ -3091,7 +2987,6 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="2"/>
@@ -3120,7 +3015,6 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="2"/>
@@ -3149,7 +3043,6 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="2"/>
@@ -3178,7 +3071,6 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="2"/>
@@ -3207,7 +3099,6 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="2"/>
@@ -3236,7 +3127,6 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2"/>
@@ -3265,7 +3155,6 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="2"/>
@@ -3294,7 +3183,6 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="2"/>
@@ -3323,7 +3211,6 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="2"/>
@@ -3352,7 +3239,6 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
-      <c r="AA85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="2"/>
@@ -3381,7 +3267,6 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="2"/>
@@ -3410,7 +3295,6 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="2"/>
@@ -3439,7 +3323,6 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="2"/>
@@ -3468,7 +3351,6 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
-      <c r="AA89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="2"/>
@@ -3497,7 +3379,6 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-      <c r="AA90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="2"/>
@@ -3526,7 +3407,6 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-      <c r="AA91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="2"/>
@@ -3555,7 +3435,6 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
-      <c r="AA92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="2"/>
@@ -3584,7 +3463,6 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-      <c r="AA93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="2"/>
@@ -3613,7 +3491,6 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
-      <c r="AA94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="2"/>
@@ -3642,7 +3519,6 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
-      <c r="AA95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="2"/>
@@ -3671,7 +3547,6 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
-      <c r="AA96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" s="2"/>
@@ -3700,7 +3575,6 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="2"/>
@@ -3729,7 +3603,6 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
-      <c r="AA98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="2"/>
@@ -3758,7 +3631,6 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="2"/>
@@ -3787,7 +3659,6 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
-      <c r="AA100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="2"/>
@@ -3816,7 +3687,6 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
-      <c r="AA101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="2"/>
@@ -3845,7 +3715,6 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
-      <c r="AA102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="2"/>
@@ -3874,7 +3743,6 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
-      <c r="AA103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="2"/>
@@ -3903,7 +3771,6 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
-      <c r="AA104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2"/>
@@ -3932,7 +3799,6 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
-      <c r="AA105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2"/>
@@ -3961,7 +3827,6 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
-      <c r="AA106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2"/>
@@ -3990,7 +3855,6 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
-      <c r="AA107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="2"/>
@@ -4019,7 +3883,6 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="2"/>
@@ -4048,7 +3911,6 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
-      <c r="AA109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="2"/>
@@ -4077,7 +3939,6 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
-      <c r="AA110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="2"/>
@@ -4106,7 +3967,6 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="2"/>
@@ -4135,7 +3995,6 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="2"/>
@@ -4164,7 +4023,6 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
-      <c r="AA113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="2"/>
@@ -4193,7 +4051,6 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="2"/>
@@ -4222,7 +4079,6 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
-      <c r="AA115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="2"/>
@@ -4251,7 +4107,6 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
-      <c r="AA116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="2"/>
@@ -4280,7 +4135,6 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
-      <c r="AA117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="2"/>
@@ -4309,7 +4163,6 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
-      <c r="AA118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="2"/>
@@ -4338,7 +4191,6 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
-      <c r="AA119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="2"/>
@@ -4367,7 +4219,6 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
-      <c r="AA120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="2"/>
@@ -4396,7 +4247,6 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
-      <c r="AA121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="2"/>
@@ -4425,7 +4275,6 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
-      <c r="AA122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="2"/>
@@ -4454,7 +4303,6 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
-      <c r="AA123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="2"/>
@@ -4483,7 +4331,6 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
-      <c r="AA124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" s="2"/>
@@ -4512,7 +4359,6 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
-      <c r="AA125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="2"/>
@@ -4541,7 +4387,6 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
-      <c r="AA126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="2"/>
@@ -4570,7 +4415,6 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
-      <c r="AA127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="2"/>
@@ -4599,7 +4443,6 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
-      <c r="AA128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="2"/>
@@ -4628,7 +4471,6 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
-      <c r="AA129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="2"/>
@@ -4657,7 +4499,6 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
-      <c r="AA130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="2"/>
@@ -4686,7 +4527,6 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
-      <c r="AA131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="2"/>
@@ -4715,7 +4555,6 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
-      <c r="AA132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="2"/>
@@ -4744,7 +4583,6 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
-      <c r="AA133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="2"/>
@@ -4773,7 +4611,6 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
-      <c r="AA134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="2"/>
@@ -4802,7 +4639,6 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
-      <c r="AA135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="2"/>
@@ -4831,7 +4667,6 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
-      <c r="AA136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="2"/>
@@ -4860,7 +4695,6 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
-      <c r="AA137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="2"/>
@@ -4889,7 +4723,6 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
-      <c r="AA138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="2"/>
@@ -4918,7 +4751,6 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
-      <c r="AA139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="2"/>
@@ -4947,7 +4779,6 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-      <c r="AA140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="2"/>
@@ -4976,7 +4807,6 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
-      <c r="AA141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="2"/>
@@ -5005,7 +4835,6 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
-      <c r="AA142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="2"/>
@@ -5034,7 +4863,6 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
-      <c r="AA143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="2"/>
@@ -5063,7 +4891,6 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
-      <c r="AA144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="2"/>
@@ -5092,7 +4919,6 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
-      <c r="AA145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="2"/>
@@ -5121,7 +4947,6 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
-      <c r="AA146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="2"/>
@@ -5150,7 +4975,6 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
-      <c r="AA147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="2"/>
@@ -5179,7 +5003,6 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
-      <c r="AA148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="2"/>
@@ -5208,7 +5031,6 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
-      <c r="AA149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="2"/>
@@ -5237,7 +5059,6 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
-      <c r="AA150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="2"/>
@@ -5266,7 +5087,6 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
-      <c r="AA151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="2"/>
@@ -5295,7 +5115,6 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
-      <c r="AA152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="2"/>
@@ -5324,7 +5143,6 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
-      <c r="AA153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="2"/>
@@ -5353,7 +5171,6 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
-      <c r="AA154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="2"/>
@@ -5382,7 +5199,6 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
-      <c r="AA155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="2"/>
@@ -5411,7 +5227,6 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
-      <c r="AA156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="2"/>
@@ -5440,7 +5255,6 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
-      <c r="AA157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="2"/>
@@ -5469,7 +5283,6 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
-      <c r="AA158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="2"/>
@@ -5498,7 +5311,6 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
-      <c r="AA159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="2"/>
@@ -5527,7 +5339,6 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
-      <c r="AA160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="2"/>
@@ -5556,7 +5367,6 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
-      <c r="AA161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="2"/>
@@ -5585,7 +5395,6 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
-      <c r="AA162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="2"/>
@@ -5614,7 +5423,6 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
-      <c r="AA163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="2"/>
@@ -5643,7 +5451,6 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
-      <c r="AA164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="2"/>
@@ -5672,7 +5479,6 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
-      <c r="AA165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="2"/>
@@ -5701,7 +5507,6 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
-      <c r="AA166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" s="2"/>
@@ -5730,7 +5535,6 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
-      <c r="AA167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="2"/>
@@ -5759,7 +5563,6 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
-      <c r="AA168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="2"/>
@@ -5788,7 +5591,6 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
-      <c r="AA169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="2"/>
@@ -5817,7 +5619,6 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
-      <c r="AA170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="2"/>
@@ -5846,7 +5647,6 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="2"/>
@@ -5875,7 +5675,6 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="2"/>
@@ -5904,7 +5703,6 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
-      <c r="AA173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="2"/>
@@ -5933,7 +5731,6 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
-      <c r="AA174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="2"/>
@@ -5962,7 +5759,6 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
-      <c r="AA175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="2"/>
@@ -5991,7 +5787,6 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
-      <c r="AA176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="2"/>
@@ -6020,7 +5815,6 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
-      <c r="AA177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="2"/>
@@ -6049,7 +5843,6 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
-      <c r="AA178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="2"/>
@@ -6078,7 +5871,6 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
-      <c r="AA179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="2"/>
@@ -6107,7 +5899,6 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
-      <c r="AA180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="2"/>
@@ -6136,7 +5927,6 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
-      <c r="AA181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="2"/>
@@ -6165,7 +5955,6 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
-      <c r="AA182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="2"/>
@@ -6194,7 +5983,6 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
-      <c r="AA183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="2"/>
@@ -6223,7 +6011,6 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
-      <c r="AA184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="2"/>
@@ -6252,7 +6039,6 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
-      <c r="AA185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="2"/>
@@ -6281,7 +6067,6 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
-      <c r="AA186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="2"/>
@@ -6310,7 +6095,6 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
-      <c r="AA187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" s="2"/>
@@ -6339,7 +6123,6 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
-      <c r="AA188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="2"/>
@@ -6368,7 +6151,6 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
-      <c r="AA189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="2"/>
@@ -6397,7 +6179,6 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
-      <c r="AA190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="2"/>
@@ -6426,7 +6207,6 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
-      <c r="AA191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="2"/>
@@ -6455,7 +6235,6 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
-      <c r="AA192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="2"/>
@@ -6484,7 +6263,6 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
-      <c r="AA193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="2"/>
@@ -6513,7 +6291,6 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
-      <c r="AA194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" s="2"/>
@@ -6542,7 +6319,6 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
-      <c r="AA195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="2"/>
@@ -6571,7 +6347,6 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
-      <c r="AA196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="2"/>
@@ -6600,7 +6375,6 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
-      <c r="AA197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="2"/>
@@ -6629,7 +6403,6 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
-      <c r="AA198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="2"/>
@@ -6658,7 +6431,6 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
-      <c r="AA199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="2"/>
@@ -6687,7 +6459,6 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
-      <c r="AA200" s="2"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/src/网站名称.xlsx
+++ b/src/网站名称.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="65" uniqueCount="65">
+  <si>
+    <t>中国官方电视台，提供权威的中国新闻与中华文化介绍，但内容比较枯燥无聊。</t>
+  </si>
+  <si>
+    <t>The official Chinese television station, which provides an authoritative introduction to Chinese news and Chinese culture, but the content is rather dull and boring.</t>
+  </si>
   <si>
     <t>https://wordnet.princeton.edu</t>
   </si>
@@ -24,6 +30,9 @@
   </si>
   <si>
     <t>https://openhownet.thunlp.org</t>
+  </si>
+  <si>
+    <t>打开知网</t>
   </si>
   <si>
     <t>https://www.onelook.com</t>
@@ -45,6 +54,57 @@
   </si>
   <si>
     <t>The only reverse dictionary system that supports cross-lingual query between Chinese and Chinese and English, and can find words by describing meaning.</t>
+  </si>
+  <si>
+    <t>DeepL翻译</t>
+  </si>
+  <si>
+    <t>DeepL Translate</t>
+  </si>
+  <si>
+    <t>DeepL翻译是一个在线翻译服务，它可以翻译文本和整个文件。它声称比其他翻译服务更准确和流畅。它支持多种语言，包括中文、英文、德文、法文等。</t>
+  </si>
+  <si>
+    <t>DeepL Translate is an online translation service that can translate texts and entire files. It claims to be more accurate and fluent than other translation services. It supports multiple languages, including Chinese, English, German, French, etc.</t>
+  </si>
+  <si>
+    <t>中文学习网</t>
+  </si>
+  <si>
+    <t>Chinese Learning Website</t>
+  </si>
+  <si>
+    <t>这个网站可以帮助你通过汉字偏旁来学习中文。这是一个正确的学习方法，已经被中国人使用了两千多年。</t>
+  </si>
+  <si>
+    <t>This website helps you learn Chinese with Chinese radicals. This is a correct way of learning and has been used by Chinese for more than two thousand years.</t>
+  </si>
+  <si>
+    <t>最实用的中文学习网站</t>
+  </si>
+  <si>
+    <t>eChineseLearning</t>
+  </si>
+  <si>
+    <t>这个网站提供了各类汉语学习资源，包括词汇、语法、听力、阅读、写作等。你还可以免费获取一对一的在线试听课程。</t>
+  </si>
+  <si>
+    <t>This website provides various Chinese learning resources, including vocabulary, grammar, listening, reading, writing, etc. You can also get a free one-on-one online trial lesson.</t>
+  </si>
+  <si>
+    <t>http://www.yes-chinese.com/</t>
+  </si>
+  <si>
+    <t>中文天下</t>
+  </si>
+  <si>
+    <t>Yes! Chinese</t>
+  </si>
+  <si>
+    <t>这个网站为海外中文学习者和中文教育机构提供中文教材和中文教学服务。它开发了从启蒙到大学、成人各阶段的中文学习系列课程，包括在线课程、多媒体互动cd等。</t>
+  </si>
+  <si>
+    <t>This website provides Chinese textbooks and teaching services for overseas Chinese learners and educational institutions. It developed a series of Chinese learning courses from enlightenment to university and adult stages, including online courses, multimedia interactive CDs, etc.</t>
   </si>
   <si>
     <r>
@@ -132,26 +192,6 @@
         <rFont val="微软雅黑"/>
         <color/>
       </rPr>
-      <t xml:space="preserve">例子</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">example</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <color/>
-      </rPr>
       <t xml:space="preserve">语义网络词典数据库</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,16 +203,6 @@
         <color/>
       </rPr>
       <t xml:space="preserve">英语词汇数据库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">OPEN HowNet</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,13 +416,49 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF175CEB"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://www.deepl.com/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF175CEB"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://funwebchinese.org/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF175CEB"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://www.echineselearning.com</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -403,6 +469,17 @@
     <font>
       <name val="微软雅黑"/>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="10.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="10.0"/>
+      <color rgb="175CEB"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="3">
@@ -428,13 +505,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -772,19 +855,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -810,19 +893,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -848,19 +931,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -886,19 +969,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -924,19 +1007,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -962,19 +1045,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1000,19 +1083,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1038,19 +1121,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1076,19 +1159,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1113,11 +1196,21 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1141,11 +1234,21 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1169,11 +1272,21 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1197,11 +1310,21 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -6462,6 +6585,11 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A12" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>